--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -209,7 +209,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="172" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -335,6 +335,12 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Noto Sans JP"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Noto Sans JP"/>
     </font>
@@ -475,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -761,6 +767,9 @@
     <xf borderId="16" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -806,6 +815,9 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -835,7 +847,7 @@
     <xdr:ext cx="1285875" cy="485775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -864,15 +876,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -902,14 +914,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>400050</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -16232,7 +16244,7 @@
     <row r="4" ht="23.25" customHeight="1">
       <c r="A4" s="39"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="105" t="s">
         <v>34</v>
       </c>
       <c r="Z4" s="39"/>
@@ -16262,7 +16274,7 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="106" t="s">
         <v>37</v>
       </c>
       <c r="Y7" s="49"/>
@@ -16693,7 +16705,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="107" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="57"/>
@@ -16708,75 +16720,75 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="108"/>
+      <c r="W22" s="109"/>
       <c r="X22" s="56"/>
-      <c r="Y22" s="109"/>
+      <c r="Y22" s="110"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="Z23" s="111"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="Z23" s="112"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
@@ -23836,7 +23848,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
-      <c r="S2" s="113" t="s">
+      <c r="S2" s="114" t="s">
         <v>40</v>
       </c>
       <c r="Y2" s="34"/>
@@ -23933,8 +23945,8 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="116"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
@@ -23949,7 +23961,7 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="106" t="s">
         <v>42</v>
       </c>
       <c r="Y7" s="49"/>
@@ -24109,13 +24121,13 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -24145,11 +24157,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -24218,12 +24230,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -24509,30 +24521,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -32933,7 +32945,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="121" t="s">
         <v>46</v>
       </c>
       <c r="X4" s="43"/>
@@ -33007,7 +33019,7 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="106" t="s">
         <v>49</v>
       </c>
       <c r="Y7" s="49"/>
@@ -33105,7 +33117,7 @@
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="120"/>
+      <c r="R10" s="122"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -33142,7 +33154,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="120"/>
+      <c r="R11" s="122"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -33168,7 +33180,7 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="116"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33181,7 +33193,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="120"/>
+      <c r="R12" s="122"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -33205,10 +33217,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -33281,12 +33293,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -33395,7 +33407,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="85"/>
-      <c r="K18" s="121"/>
+      <c r="K18" s="123"/>
       <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="85"/>
@@ -33427,7 +33439,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="92"/>
-      <c r="D19" s="122"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -138,7 +138,7 @@
     <t>（内訳）</t>
   </si>
   <si>
-    <t xml:space="preserve">               株式会社 クーシー</t>
+    <t xml:space="preserve">            株式会社 クーシー</t>
   </si>
   <si>
     <t xml:space="preserve">                〒150-0011東京都渋谷区東3-16-3 7F</t>
@@ -768,7 +768,7 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -847,7 +847,7 @@
     <xdr:ext cx="1285875" cy="485775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -884,7 +884,7 @@
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -921,7 +921,7 @@
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -16345,7 +16345,7 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" ht="28.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="54" t="s">
         <v>18</v>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -138,7 +138,7 @@
     <t>（内訳）</t>
   </si>
   <si>
-    <t xml:space="preserve">            株式会社 クーシー</t>
+    <t xml:space="preserve">               株式会社 クーシー</t>
   </si>
   <si>
     <t xml:space="preserve">                〒150-0011東京都渋谷区東3-16-3 7F</t>
@@ -150,10 +150,80 @@
     <t>見　積　書</t>
   </si>
   <si>
-    <t>支払方法    ：</t>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>見積書番号</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>：</t>
+    </r>
   </si>
   <si>
-    <t>有効期限    ：</t>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">納　　期　</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">支払方法    </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">有効期限   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Noto Sans JP"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve"> ：</t>
+    </r>
   </si>
   <si>
     <t>年　　　月　　　日</t>
@@ -481,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,6 +842,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -16399,8 +16478,8 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="56" t="s">
-        <v>19</v>
+      <c r="B12" s="107" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -16432,8 +16511,8 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="56" t="s">
-        <v>20</v>
+      <c r="B13" s="107" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
@@ -16465,12 +16544,12 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="60" t="s">
-        <v>38</v>
+      <c r="B14" s="108" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="109" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="61"/>
@@ -16502,8 +16581,8 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="60" t="s">
-        <v>39</v>
+      <c r="B15" s="108" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -16705,7 +16784,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="110" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="57"/>
@@ -16720,75 +16799,75 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
-      <c r="U22" s="108"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="109"/>
+      <c r="W22" s="112"/>
       <c r="X22" s="56"/>
-      <c r="Y22" s="110"/>
+      <c r="Y22" s="113"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="Z23" s="112"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="115"/>
+      <c r="Z23" s="115"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="115"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
@@ -23848,8 +23927,8 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
-      <c r="S2" s="114" t="s">
-        <v>40</v>
+      <c r="S2" s="117" t="s">
+        <v>42</v>
       </c>
       <c r="Y2" s="34"/>
       <c r="Z2" s="32"/>
@@ -23866,7 +23945,7 @@
     <row r="3" ht="54.75" customHeight="1">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="41"/>
@@ -23945,8 +24024,8 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="116"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
@@ -23962,7 +24041,7 @@
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="49"/>
       <c r="Z7" s="37"/>
@@ -24053,7 +24132,7 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
@@ -24117,17 +24196,17 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="117"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -24157,11 +24236,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -24230,12 +24309,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -24521,30 +24600,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="123"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -24559,7 +24638,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -32945,8 +33024,8 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="121" t="s">
-        <v>46</v>
+      <c r="O4" s="124" t="s">
+        <v>48</v>
       </c>
       <c r="X4" s="43"/>
       <c r="Y4" s="39"/>
@@ -32977,7 +33056,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="44"/>
       <c r="O5" s="45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
@@ -33005,7 +33084,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="44"/>
       <c r="O6" s="45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="45"/>
       <c r="AB6" s="30"/>
@@ -33020,7 +33099,7 @@
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y7" s="49"/>
       <c r="Z7" s="37"/>
@@ -33111,13 +33190,13 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="122"/>
+      <c r="R10" s="125"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -33154,7 +33233,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="122"/>
+      <c r="R11" s="125"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -33176,11 +33255,11 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="117"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33193,7 +33272,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="122"/>
+      <c r="R12" s="125"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -33217,10 +33296,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -33293,12 +33372,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -33407,7 +33486,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="85"/>
-      <c r="K18" s="123"/>
+      <c r="K18" s="126"/>
       <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="85"/>
@@ -33439,7 +33518,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="92"/>
-      <c r="D19" s="124"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
@@ -33620,7 +33699,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="30"/>
       <c r="B24" s="30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -851,6 +851,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="21" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -16483,7 +16486,7 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -16516,7 +16519,7 @@
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="59"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -16586,7 +16589,7 @@
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
-      <c r="E15" s="70"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
@@ -16784,7 +16787,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="111" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="57"/>
@@ -16799,75 +16802,75 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="112"/>
+      <c r="W22" s="113"/>
       <c r="X22" s="56"/>
-      <c r="Y22" s="113"/>
+      <c r="Y22" s="114"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="Z23" s="115"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="Z23" s="116"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="115"/>
-      <c r="Z24" s="115"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
@@ -23927,7 +23930,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="118" t="s">
         <v>42</v>
       </c>
       <c r="Y2" s="34"/>
@@ -24024,8 +24027,8 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="120"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
@@ -24200,13 +24203,13 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="120"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -24236,11 +24239,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -24309,12 +24312,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -24600,30 +24603,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="124"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -33024,7 +33027,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="124" t="s">
+      <c r="O4" s="125" t="s">
         <v>48</v>
       </c>
       <c r="X4" s="43"/>
@@ -33196,7 +33199,7 @@
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="125"/>
+      <c r="R10" s="126"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -33233,7 +33236,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="125"/>
+      <c r="R11" s="126"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -33259,7 +33262,7 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="120"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33272,7 +33275,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="125"/>
+      <c r="R12" s="126"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -33296,10 +33299,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -33372,12 +33375,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -33486,7 +33489,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="85"/>
-      <c r="K18" s="126"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="85"/>
@@ -33518,7 +33521,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="92"/>
-      <c r="D19" s="127"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -845,6 +845,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -16486,7 +16489,7 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -16547,12 +16550,12 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="109" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="110" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="61"/>
@@ -16584,12 +16587,12 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="109" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
-      <c r="E15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
@@ -16787,7 +16790,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="57"/>
@@ -16802,75 +16805,75 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="113"/>
+      <c r="W22" s="114"/>
       <c r="X22" s="56"/>
-      <c r="Y22" s="114"/>
+      <c r="Y22" s="115"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="Z23" s="116"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="Z23" s="117"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
@@ -23930,7 +23933,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
-      <c r="S2" s="118" t="s">
+      <c r="S2" s="119" t="s">
         <v>42</v>
       </c>
       <c r="Y2" s="34"/>
@@ -24027,8 +24030,8 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="121"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
@@ -24203,13 +24206,13 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -24239,11 +24242,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -24312,12 +24315,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -24603,30 +24606,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="124"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124"/>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -33027,7 +33030,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="126" t="s">
         <v>48</v>
       </c>
       <c r="X4" s="43"/>
@@ -33199,7 +33202,7 @@
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="126"/>
+      <c r="R10" s="127"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -33236,7 +33239,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="126"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -33262,7 +33265,7 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="121"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33275,7 +33278,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="126"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -33299,10 +33302,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -33375,12 +33378,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -33489,7 +33492,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="85"/>
-      <c r="K18" s="127"/>
+      <c r="K18" s="128"/>
       <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="85"/>
@@ -33521,7 +33524,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="92"/>
-      <c r="D19" s="128"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -138,13 +138,13 @@
     <t>（内訳）</t>
   </si>
   <si>
-    <t xml:space="preserve">               株式会社 クーシー</t>
+    <t xml:space="preserve">           株式会社 クーシー</t>
   </si>
   <si>
-    <t xml:space="preserve">                〒150-0011東京都渋谷区東3-16-3 7F</t>
+    <t xml:space="preserve">            〒150-0011東京都渋谷区東3-16-3 7F</t>
   </si>
   <si>
-    <t xml:space="preserve">                 TEL：03-5766-6095　FAX：03-5766-6096</t>
+    <t xml:space="preserve">           TEL：03-5766-6095　FAX：03-5766-6096</t>
   </si>
   <si>
     <t>見　積　書</t>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t xml:space="preserve">　       〒150-0011東京都渋谷区東3-16-3 7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           TEL：03-5766-6095　FAX：03-5766-6096</t>
   </si>
   <si>
     <t>注　文　請　書</t>
@@ -551,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -839,6 +836,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -16340,7 +16343,7 @@
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="30"/>
       <c r="N5" s="44"/>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="106" t="s">
         <v>35</v>
       </c>
       <c r="AA5" s="30"/>
@@ -16350,16 +16353,16 @@
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="30"/>
       <c r="N6" s="44"/>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="107" t="s">
         <v>36</v>
       </c>
       <c r="AA6" s="45"/>
       <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
+      <c r="AC6" s="95"/>
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="108" t="s">
         <v>37</v>
       </c>
       <c r="Y7" s="49"/>
@@ -16484,12 +16487,12 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="109" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="108"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -16517,7 +16520,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="109" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="57"/>
@@ -16550,12 +16553,12 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="111" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="112" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="61"/>
@@ -16587,12 +16590,12 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="111" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
@@ -16790,7 +16793,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="114" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="57"/>
@@ -16805,75 +16808,75 @@
       <c r="L22" s="57"/>
       <c r="M22" s="57"/>
       <c r="N22" s="56"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="114"/>
+      <c r="W22" s="116"/>
       <c r="X22" s="56"/>
-      <c r="Y22" s="115"/>
+      <c r="Y22" s="117"/>
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="30"/>
       <c r="AC22" s="30"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="Z23" s="117"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="Z23" s="119"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="30"/>
       <c r="AC24" s="30"/>
@@ -23933,7 +23936,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
-      <c r="S2" s="119" t="s">
+      <c r="S2" s="121" t="s">
         <v>42</v>
       </c>
       <c r="Y2" s="34"/>
@@ -24030,8 +24033,8 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="121"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="123"/>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
@@ -24046,7 +24049,7 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="108" t="s">
         <v>44</v>
       </c>
       <c r="Y7" s="49"/>
@@ -24206,13 +24209,13 @@
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
@@ -24242,11 +24245,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -24315,12 +24318,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -24606,30 +24609,30 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="30"/>
       <c r="AB23" s="30"/>
@@ -33030,7 +33033,7 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="126" t="s">
+      <c r="O4" s="128" t="s">
         <v>48</v>
       </c>
       <c r="X4" s="43"/>
@@ -33090,7 +33093,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="44"/>
       <c r="O6" s="45" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="45"/>
       <c r="AB6" s="30"/>
@@ -33104,8 +33107,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="37"/>
-      <c r="B7" s="106" t="s">
-        <v>51</v>
+      <c r="B7" s="108" t="s">
+        <v>50</v>
       </c>
       <c r="Y7" s="49"/>
       <c r="Z7" s="37"/>
@@ -33196,13 +33199,13 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="127"/>
+      <c r="R10" s="129"/>
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
@@ -33239,7 +33242,7 @@
       <c r="O11" s="30"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="127"/>
+      <c r="R11" s="129"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
@@ -33261,11 +33264,11 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="122"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -33278,7 +33281,7 @@
       <c r="O12" s="30"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="127"/>
+      <c r="R12" s="129"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -33302,10 +33305,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -33378,12 +33381,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="60"/>
       <c r="J15" s="60"/>
       <c r="K15" s="60"/>
@@ -33492,7 +33495,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="85"/>
-      <c r="K18" s="128"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="86"/>
       <c r="M18" s="87"/>
       <c r="N18" s="85"/>
@@ -33524,7 +33527,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="92"/>
-      <c r="D19" s="129"/>
+      <c r="D19" s="131"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>

--- a/quotation-template.xlsx
+++ b/quotation-template.xlsx
@@ -138,10 +138,10 @@
     <t>（内訳）</t>
   </si>
   <si>
-    <t xml:space="preserve">           株式会社 クーシー</t>
+    <t xml:space="preserve">          株式会社 クーシー</t>
   </si>
   <si>
-    <t xml:space="preserve">            〒150-0011東京都渋谷区東3-16-3 7F</t>
+    <t xml:space="preserve">           〒150-0011東京都渋谷区東3-16-3 7F</t>
   </si>
   <si>
     <t xml:space="preserve">           TEL：03-5766-6095　FAX：03-5766-6096</t>
